--- a/benchmark_statistics/results.xlsx
+++ b/benchmark_statistics/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="329" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="329" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Serial-Parallel" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
   <si>
     <t>sim_seconds</t>
   </si>
@@ -109,15 +109,6 @@
     <t>Average Latency</t>
   </si>
   <si>
-    <t>SERIAL</t>
-  </si>
-  <si>
-    <t>PARALLEL</t>
-  </si>
-  <si>
-    <t>DYNAMIC</t>
-  </si>
-  <si>
     <t>ALPHA_SYMM_1GHZ_P1</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t>Modern Core Latency</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>Number of Cores</t>
   </si>
   <si>
@@ -206,6 +194,15 @@
   </si>
   <si>
     <t>Speedup</t>
+  </si>
+  <si>
+    <t>SERIAL BENCHMARK</t>
+  </si>
+  <si>
+    <t>PARALLEL BENCHMARK</t>
+  </si>
+  <si>
+    <t>SERIAL AND PARALLEL BENCHMARK</t>
   </si>
 </sst>
 </file>
@@ -379,7 +376,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SERIAL</c:v>
+                  <c:v>SERIAL BENCHMARK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -512,7 +509,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PARALLEL</c:v>
+                  <c:v>PARALLEL BENCHMARK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -645,11 +642,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="398147664"/>
-        <c:axId val="398150800"/>
+        <c:axId val="305851960"/>
+        <c:axId val="305846472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="398147664"/>
+        <c:axId val="305851960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +663,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="398150800"/>
+        <c:crossAx val="305846472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -674,7 +671,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398150800"/>
+        <c:axId val="305846472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +716,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="398147664"/>
+        <c:crossAx val="305851960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -809,7 +806,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SERIAL</c:v>
+                  <c:v>SERIAL BENCHMARK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -904,7 +901,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PARALLEL</c:v>
+                  <c:v>PARALLEL BENCHMARK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -999,7 +996,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DYNAMIC</c:v>
+                  <c:v>SERIAL AND PARALLEL BENCHMARK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1059,10 +1056,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25271718699999995</c:v>
+                  <c:v>0.25271024999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.102520562</c:v>
+                  <c:v>0.102513625</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.7933061999999992E-2</c:v>
@@ -1094,11 +1091,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="398146880"/>
-        <c:axId val="398149624"/>
+        <c:axId val="305844512"/>
+        <c:axId val="305845688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="398146880"/>
+        <c:axId val="305844512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1112,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="398149624"/>
+        <c:crossAx val="305845688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1123,7 +1120,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398149624"/>
+        <c:axId val="305845688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1165,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="398146880"/>
+        <c:crossAx val="305844512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1182,7 +1179,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1297,7 +1294,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Difference</c:v>
+                  <c:v>Speedup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1370,34 +1367,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99999973464765246</c:v>
+                  <c:v>5.0087991358213424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99999946929544559</c:v>
+                  <c:v>5.0087988333089983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99999893859145461</c:v>
+                  <c:v>5.0087982282844195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99999787718516231</c:v>
+                  <c:v>5.0087970182357022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9999957543793373</c:v>
+                  <c:v>5.0087945981400193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99999150879472509</c:v>
+                  <c:v>5.0087897579556708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99998301773365028</c:v>
+                  <c:v>5.008780077615036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99996603604408552</c:v>
+                  <c:v>5.0087607170460204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99993207439519305</c:v>
+                  <c:v>5.0087219963569947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99986415801753503</c:v>
+                  <c:v>5.0086445567749189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,11 +1409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397057584"/>
-        <c:axId val="397061896"/>
+        <c:axId val="305848824"/>
+        <c:axId val="305844904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397057584"/>
+        <c:axId val="305848824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,12 +1526,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397061896"/>
+        <c:crossAx val="305844904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397061896"/>
+        <c:axId val="305844904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397057584"/>
+        <c:crossAx val="305848824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1765,7 +1762,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1783,7 +1780,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1837,27 +1836,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.55226566879867767</c:v>
+                  <c:v>0.53272592763089988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8093024464521521</c:v>
+                  <c:v>0.73237631282820503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8738601470192594</c:v>
+                  <c:v>0.77304204026797352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83858614039343748</c:v>
+                  <c:v>0.77016836189806315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61757165950034654</c:v>
+                  <c:v>0.6633894688204377</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.417579576954698</c:v>
+                  <c:v>0.5354532135151634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1867,11 +1866,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="322138048"/>
-        <c:axId val="322140008"/>
+        <c:axId val="305849608"/>
+        <c:axId val="305846080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="322138048"/>
+        <c:axId val="305849608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,12 +1983,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322140008"/>
+        <c:crossAx val="305846080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322140008"/>
+        <c:axId val="305846080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322138048"/>
+        <c:crossAx val="305849608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3794,11 +3793,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="397064248"/>
-        <c:axId val="397066208"/>
+        <c:axId val="305850392"/>
+        <c:axId val="305851568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="397064248"/>
+        <c:axId val="305850392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,7 +3814,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="397066208"/>
+        <c:crossAx val="305851568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3823,7 +3822,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="397066208"/>
+        <c:axId val="305851568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,7 +3848,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="397064248"/>
+        <c:crossAx val="305850392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5697,11 +5696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="397059936"/>
-        <c:axId val="397060720"/>
+        <c:axId val="305851176"/>
+        <c:axId val="307271648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="397059936"/>
+        <c:axId val="305851176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5718,7 +5717,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="397060720"/>
+        <c:crossAx val="307271648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5726,7 +5725,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="397060720"/>
+        <c:axId val="307271648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5752,7 +5751,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="397059936"/>
+        <c:crossAx val="305851176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7600,11 +7599,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="397061504"/>
-        <c:axId val="397055624"/>
+        <c:axId val="307269296"/>
+        <c:axId val="307272040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="397061504"/>
+        <c:axId val="307269296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7621,7 +7620,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="397055624"/>
+        <c:crossAx val="307272040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7629,7 +7628,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="397055624"/>
+        <c:axId val="307272040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7655,7 +7654,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="397061504"/>
+        <c:crossAx val="307269296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8848,7 +8847,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8974,7 +8973,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>420481</xdr:colOff>
+      <xdr:colOff>420480</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
@@ -9004,7 +9003,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>367921</xdr:colOff>
+      <xdr:colOff>367920</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
@@ -9034,7 +9033,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>310681</xdr:colOff>
+      <xdr:colOff>310680</xdr:colOff>
       <xdr:row>166</xdr:row>
       <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
@@ -9321,18 +9320,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E92" activeCellId="1" sqref="A92:A98 E92:E98"/>
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93:E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.21875"/>
-    <col min="2" max="5" width="11.5546875"/>
+    <col min="2" max="2" width="11.5546875"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875"/>
     <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="11.5546875"/>
+    <col min="7" max="7" width="11.5546875"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.5546875"/>
     <col min="12" max="12" width="19.88671875"/>
     <col min="13" max="1025" width="11.5546875"/>
   </cols>
@@ -11549,18 +11552,18 @@
         <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B63">
         <f t="shared" ref="B63:B75" si="26">(C2+E2+G2+I2)/4</f>
@@ -11571,13 +11574,13 @@
         <v>0.31194875</v>
       </c>
       <c r="D63">
-        <f>(B63+C63)/2 + 0.000000991 * 7</f>
-        <v>0.35263806199999997</v>
+        <f>(B63+C63)/2</f>
+        <v>0.35263112499999999</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B64">
         <f t="shared" si="26"/>
@@ -11588,13 +11591,13 @@
         <v>0.17323724999999998</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64:D78" si="28">(B64+C64)/2 + 0.000000991 * 7</f>
-        <v>0.28219006199999996</v>
+        <f t="shared" ref="D64:D77" si="28">(B64+C64)/2</f>
+        <v>0.28218312499999998</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B65">
         <f t="shared" si="26"/>
@@ -11606,12 +11609,12 @@
       </c>
       <c r="D65">
         <f t="shared" si="28"/>
-        <v>0.25619918699999999</v>
+        <v>0.25619225000000001</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B66">
         <f t="shared" si="26"/>
@@ -11623,12 +11626,12 @@
       </c>
       <c r="D66">
         <f t="shared" si="28"/>
-        <v>0.24013768699999999</v>
+        <v>0.24013074999999998</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B67">
         <f t="shared" si="26"/>
@@ -11640,12 +11643,12 @@
       </c>
       <c r="D67">
         <f t="shared" si="28"/>
-        <v>0.25271718699999995</v>
+        <v>0.25271024999999997</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B68">
         <f t="shared" si="26"/>
@@ -11657,12 +11660,12 @@
       </c>
       <c r="D68">
         <f t="shared" si="28"/>
-        <v>0.28883781199999997</v>
+        <v>0.28883087499999999</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B69">
         <f t="shared" si="26"/>
@@ -11674,12 +11677,12 @@
       </c>
       <c r="D69">
         <f t="shared" si="28"/>
-        <v>0.102520562</v>
+        <v>0.102513625</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B70">
         <f t="shared" si="26"/>
@@ -11691,12 +11694,12 @@
       </c>
       <c r="D70">
         <f t="shared" si="28"/>
-        <v>6.6723687000000004E-2</v>
+        <v>6.6716750000000005E-2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B71">
         <f t="shared" si="26"/>
@@ -11708,12 +11711,12 @@
       </c>
       <c r="D71">
         <f t="shared" si="28"/>
-        <v>0.13712581200000001</v>
+        <v>0.137118875</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B72">
         <f t="shared" si="26"/>
@@ -11725,12 +11728,12 @@
       </c>
       <c r="D72">
         <f t="shared" si="28"/>
-        <v>0.18693656200000003</v>
+        <v>0.18692962500000002</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B73">
         <f t="shared" si="26"/>
@@ -11742,12 +11745,12 @@
       </c>
       <c r="D73">
         <f t="shared" si="28"/>
-        <v>0.25677168699999997</v>
+        <v>0.25676474999999999</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B74">
         <f t="shared" si="26"/>
@@ -11759,12 +11762,12 @@
       </c>
       <c r="D74">
         <f t="shared" si="28"/>
-        <v>0.35865918699999999</v>
+        <v>0.35865225000000001</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B75">
         <f t="shared" si="26"/>
@@ -11776,12 +11779,12 @@
       </c>
       <c r="D75">
         <f t="shared" si="28"/>
-        <v>0.50198493700000002</v>
+        <v>0.50197800000000004</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B76">
         <f>B67</f>
@@ -11793,12 +11796,12 @@
       </c>
       <c r="D76">
         <f t="shared" si="28"/>
-        <v>0.25271718699999995</v>
+        <v>0.25271024999999997</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B77">
         <f>B69</f>
@@ -11810,24 +11813,24 @@
       </c>
       <c r="D77">
         <f t="shared" si="28"/>
-        <v>0.102520562</v>
+        <v>0.102513625</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I77" t="s">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s">
         <v>48</v>
-      </c>
-      <c r="J77" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B78">
         <f>B77</f>
@@ -11838,333 +11841,345 @@
         <v>0.11654225</v>
       </c>
       <c r="D78">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="D78" si="29">(B78+C78)/2 + 0.000000991 * 7</f>
         <v>8.7933061999999992E-2</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G78">
         <f>D63/D78</f>
-        <v>4.010301176592713</v>
+        <v>4.0102222870392028</v>
       </c>
       <c r="H78">
         <f>D77/D78</f>
-        <v>1.1658932336508423</v>
+        <v>1.1658143440973316</v>
       </c>
       <c r="I78">
         <f>D76/D78</f>
-        <v>2.8739723290882329</v>
+        <v>2.8738934395347222</v>
       </c>
       <c r="J78">
         <f>D70/D78</f>
-        <v>0.75880090471545292</v>
+        <v>0.75872201516194226</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <f>64*$I$8+64*$F$6+0.000000991*A81</f>
-        <v>3.734656991</v>
+        <f>256*$I$8+256*$J$6+0.000000991*A81</f>
+        <v>16.408320991</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1">
-        <f>64*$F$6+64*$I$8</f>
-        <v>3.7346560000000002</v>
+        <f>256*$J$8+256*$I$8</f>
+        <v>82.185983999999991</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81">
         <f>D81/B81</f>
-        <v>0.99999973464765246</v>
+        <v>5.0087991358213424</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" ref="B82:B90" si="29">64*$I$8+64*$F$6+0.000000991*A82</f>
-        <v>3.7346579820000003</v>
+        <f t="shared" ref="B82:B90" si="30">256*$I$8+256*$J$6+0.000000991*A82</f>
+        <v>16.408321982</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1">
-        <f t="shared" ref="D82:D90" si="30">64*$F$6+64*$I$8</f>
-        <v>3.7346560000000002</v>
+        <f t="shared" ref="D82:D90" si="31">256*$J$8+256*$I$8</f>
+        <v>82.185983999999991</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82">
-        <f t="shared" ref="F82:F90" si="31">D82/B82</f>
-        <v>0.99999946929544559</v>
+        <f t="shared" ref="F82:F90" si="32">D82/B82</f>
+        <v>5.0087988333089983</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="29"/>
-        <v>3.734659964</v>
+        <f t="shared" si="30"/>
+        <v>16.408323964000001</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1">
-        <f t="shared" si="30"/>
-        <v>3.7346560000000002</v>
+        <f t="shared" si="31"/>
+        <v>82.185983999999991</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83">
-        <f t="shared" si="31"/>
-        <v>0.99999893859145461</v>
+        <f t="shared" si="32"/>
+        <v>5.0087982282844195</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="29"/>
-        <v>3.7346639280000002</v>
+        <f t="shared" si="30"/>
+        <v>16.408327927999999</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1">
-        <f t="shared" si="30"/>
-        <v>3.7346560000000002</v>
+        <f t="shared" si="31"/>
+        <v>82.185983999999991</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84">
-        <f t="shared" si="31"/>
-        <v>0.99999787718516231</v>
+        <f t="shared" si="32"/>
+        <v>5.0087970182357022</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>16</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="29"/>
-        <v>3.7346718560000003</v>
+        <f t="shared" si="30"/>
+        <v>16.408335856000001</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1">
-        <f t="shared" si="30"/>
-        <v>3.7346560000000002</v>
+        <f t="shared" si="31"/>
+        <v>82.185983999999991</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85">
-        <f t="shared" si="31"/>
-        <v>0.9999957543793373</v>
+        <f t="shared" si="32"/>
+        <v>5.0087945981400193</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>32</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="29"/>
-        <v>3.7346877120000004</v>
+        <f t="shared" si="30"/>
+        <v>16.408351711999998</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1">
-        <f t="shared" si="30"/>
-        <v>3.7346560000000002</v>
+        <f t="shared" si="31"/>
+        <v>82.185983999999991</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86">
-        <f t="shared" si="31"/>
-        <v>0.99999150879472509</v>
+        <f t="shared" si="32"/>
+        <v>5.0087897579556708</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>64</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="29"/>
-        <v>3.7347194240000001</v>
+        <f t="shared" si="30"/>
+        <v>16.408383424</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1">
-        <f t="shared" si="30"/>
-        <v>3.7346560000000002</v>
+        <f t="shared" si="31"/>
+        <v>82.185983999999991</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87">
-        <f t="shared" si="31"/>
-        <v>0.99998301773365028</v>
+        <f t="shared" si="32"/>
+        <v>5.008780077615036</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>128</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="29"/>
-        <v>3.734782848</v>
+        <f t="shared" si="30"/>
+        <v>16.408446848000001</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1">
-        <f t="shared" si="30"/>
-        <v>3.7346560000000002</v>
+        <f t="shared" si="31"/>
+        <v>82.185983999999991</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88">
-        <f t="shared" si="31"/>
-        <v>0.99996603604408552</v>
+        <f t="shared" si="32"/>
+        <v>5.0087607170460204</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>256</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="29"/>
-        <v>3.7349096960000003</v>
+        <f t="shared" si="30"/>
+        <v>16.408573696000001</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1">
-        <f t="shared" si="30"/>
-        <v>3.7346560000000002</v>
+        <f t="shared" si="31"/>
+        <v>82.185983999999991</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89">
-        <f t="shared" si="31"/>
-        <v>0.99993207439519305</v>
+        <f t="shared" si="32"/>
+        <v>5.0087219963569947</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>512</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="29"/>
-        <v>3.735163392</v>
+        <f t="shared" si="30"/>
+        <v>16.408827391999999</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1">
-        <f t="shared" si="30"/>
-        <v>3.7346560000000002</v>
+        <f t="shared" si="31"/>
+        <v>82.185983999999991</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90">
-        <f t="shared" si="31"/>
-        <v>0.99986415801753503</v>
+        <f t="shared" si="32"/>
+        <v>5.0086445567749189</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" t="s">
         <v>56</v>
       </c>
-      <c r="B92" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" t="s">
-        <v>59</v>
-      </c>
-      <c r="E92" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
       <c r="B93">
-        <f>B69</f>
-        <v>5.9309999999999995E-2</v>
+        <f>4/SUM(1/C54,1/E54,1/G54,1/I54)</f>
+        <v>1631888608.8064635</v>
       </c>
       <c r="C93">
-        <f>C63</f>
-        <v>0.31194875</v>
+        <f>4/SUM(1/D48,1/F48,1/H48,1/J48)</f>
+        <v>323685039.56819946</v>
       </c>
       <c r="D93">
-        <f>(B93+C93)/2 + 0.000000991 * 7</f>
-        <v>0.185636312</v>
+        <f>SUM(1/0.5 + 1/0.5)/(1/(0.5*B93) + 1/(0.5*C93))</f>
+        <v>540217883.74110293</v>
       </c>
       <c r="E93">
-        <f>$D$77/D93</f>
-        <v>0.55226566879867767</v>
+        <f>D93/$I$93</f>
+        <v>0.53272592763089988</v>
+      </c>
+      <c r="G93">
+        <f>4/SUM(1/C54,1/E54,1/G54,1/I54)</f>
+        <v>1631888608.8064635</v>
+      </c>
+      <c r="H93">
+        <f>4/SUM(1/D54,1/F54,1/H54,1/J54)</f>
+        <v>735577378.5253123</v>
+      </c>
+      <c r="I93">
+        <f>2/(1/G93 + 1/H93)</f>
+        <v>1014063434.3507942</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
       <c r="B94">
-        <f>B71</f>
-        <v>8.0104249999999988E-2</v>
+        <f>4/SUM(1/C56,1/E56,1/G56,1/I56)</f>
+        <v>1243838188.7357316</v>
       </c>
       <c r="C94">
-        <f>C64</f>
-        <v>0.17323724999999998</v>
+        <f>4/SUM(1/D49,1/F49,1/H49,1/J49)</f>
+        <v>529380309.47229689</v>
       </c>
       <c r="D94">
-        <f t="shared" ref="D94:D98" si="32">(B94+C94)/2 + 0.000000991 * 7</f>
-        <v>0.12667768700000001</v>
+        <f>SUM(1/0.5 + 1/0.5)/(1/(0.5*B94) + 1/(0.5*C94))</f>
+        <v>742676039.02374125</v>
       </c>
       <c r="E94">
-        <f t="shared" ref="E94:E98" si="33">$D$77/D94</f>
-        <v>0.8093024464521521</v>
+        <f t="shared" ref="E94:E98" si="33">D94/$I$93</f>
+        <v>0.73237631282820503</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95">
-        <f t="shared" ref="B95:B98" si="34">B72</f>
-        <v>0.11097425000000001</v>
+        <f t="shared" ref="B95:B98" si="34">4/SUM(1/C57,1/E57,1/G57,1/I57)</f>
+        <v>920906047.71075177</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:C98" si="35">C65</f>
-        <v>0.12365025</v>
+        <f t="shared" ref="C95:C98" si="35">4/SUM(1/D50,1/F50,1/H50,1/J50)</f>
+        <v>682400896.1813122</v>
       </c>
       <c r="D95">
-        <f t="shared" si="32"/>
-        <v>0.11731918700000001</v>
+        <f t="shared" ref="D95:D98" si="36">SUM(1/0.5 + 1/0.5)/(1/(0.5*B95) + 1/(0.5*C95))</f>
+        <v>783913666.25168622</v>
       </c>
       <c r="E95">
         <f t="shared" si="33"/>
-        <v>0.8738601470192594</v>
+        <v>0.77304204026797352</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>8</v>
       </c>
       <c r="B96">
         <f t="shared" si="34"/>
-        <v>0.15327049999999998</v>
+        <v>678679897.98850548</v>
       </c>
       <c r="C96">
         <f t="shared" si="35"/>
-        <v>9.1223750000000006E-2</v>
+        <v>919648322.61420429</v>
       </c>
       <c r="D96">
-        <f t="shared" si="32"/>
-        <v>0.12225406199999998</v>
+        <f t="shared" si="36"/>
+        <v>780999574.0946753</v>
       </c>
       <c r="E96">
         <f t="shared" si="33"/>
-        <v>0.83858614039343748</v>
+        <v>0.77016836189806315</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -12173,19 +12188,19 @@
       </c>
       <c r="B97">
         <f t="shared" si="34"/>
-        <v>0.21545575</v>
+        <v>491042771.25004929</v>
       </c>
       <c r="C97">
         <f t="shared" si="35"/>
-        <v>0.11654225</v>
+        <v>1067774828.3300192</v>
       </c>
       <c r="D97">
-        <f t="shared" si="32"/>
-        <v>0.16600593700000002</v>
+        <f t="shared" si="36"/>
+        <v>672719003.06420219</v>
       </c>
       <c r="E97">
         <f t="shared" si="33"/>
-        <v>0.61757165950034654</v>
+        <v>0.6633894688204377</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -12194,19 +12209,53 @@
       </c>
       <c r="B98">
         <f t="shared" si="34"/>
-        <v>0.30290875</v>
+        <v>352891733.4205035</v>
       </c>
       <c r="C98">
         <f t="shared" si="35"/>
-        <v>0.18810025</v>
+        <v>1176993029.7590373</v>
       </c>
       <c r="D98">
-        <f t="shared" si="32"/>
-        <v>0.24551143700000003</v>
+        <f t="shared" si="36"/>
+        <v>542983524.63135564</v>
       </c>
       <c r="E98">
         <f t="shared" si="33"/>
-        <v>0.417579576954698</v>
+        <v>0.5354532135151634</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <f>B69*0.9</f>
+        <v>5.3378999999999996E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
